--- a/biology/Neurosciences/Céroïdes-lipofuscinoses_neuronales/Céroïdes-lipofuscinoses_neuronales.xlsx
+++ b/biology/Neurosciences/Céroïdes-lipofuscinoses_neuronales/Céroïdes-lipofuscinoses_neuronales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9ro%C3%AFdes-lipofuscinoses_neuronales</t>
+          <t>Céroïdes-lipofuscinoses_neuronales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les céroïdes-lipofuscinoses neuronales (CLN) sont un groupe  de maladies dégénératives de surcharge lysosomale caractérisées par une détérioration progressive neurologique et mentale s'accompagnant de convulsions et aboutissant rapidement à la mort. La perte progressive de la vision est une caractéristique de la plupart des céroïdes-lipofuscinoses.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9ro%C3%AFdes-lipofuscinoses_neuronales</t>
+          <t>Céroïdes-lipofuscinoses_neuronales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les différentes céroïdes-lipofuscinoses se distinguent par l'âge de survenue de la maladie et l'ordre d'apparition des signes. On distingue ainsi :
 La céroïde-lipofuscinose infantile ou maladie de Hagberg-Santavuori ou céroïde-lipofuscinose neuronale de type 1 : les enfants sont normaux à la naissance. Vers l'âge de deux ans apparaît une perte de la vision avec convulsions. La neurodégénérescence survient secondairement. L'âge du décès est entre 8 et 11 ans.
-La céroïde-lipofuscinose infantile tardive ou maladie de Jansky-Bielschowsky ou céroïde-lipofuscinose neuronale de type 2 : les premiers signes surviennent  entre 2 et 4 ans généralement par des convulsions rapidement suivies par des signes de neurodégénérescence[1] : arrêt du développement, ataxie, syndrome pyramidal et extra pyramidal. La perte de vision survient entre 4 et 6 ans et aboutit rapidement vers la cécité totale. L'âge du décès est entre 10 et 30 ans. Elle est due à des mutations sur le gène TPP1 (appelé aussi CLN2)[2]. La cerliponase alpha, en injection dans les ventricules cérébraux, permet d'en retarder l'évolution[3]. Il existe des variants de cette forme
+La céroïde-lipofuscinose infantile tardive ou maladie de Jansky-Bielschowsky ou céroïde-lipofuscinose neuronale de type 2 : les premiers signes surviennent  entre 2 et 4 ans généralement par des convulsions rapidement suivies par des signes de neurodégénérescence : arrêt du développement, ataxie, syndrome pyramidal et extra pyramidal. La perte de vision survient entre 4 et 6 ans et aboutit rapidement vers la cécité totale. L'âge du décès est entre 10 et 30 ans. Elle est due à des mutations sur le gène TPP1 (appelé aussi CLN2). La cerliponase alpha, en injection dans les ventricules cérébraux, permet d'en retarder l'évolution. Il existe des variants de cette forme
 La céroïde-lipofuscinose infantile tardive type turque
 La céroïde-lipofuscinose infantile tardive  type finlandaise
 La céroïde-lipofuscinose infantile tardive variante localisée en Amérique du Sud, Costa Rica, Portugal etc.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9ro%C3%AFdes-lipofuscinoses_neuronales</t>
+          <t>Céroïdes-lipofuscinoses_neuronales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Déficit en palmitoyl-protéine thioestérase
-Maladie de Batten[4]</t>
+Maladie de Batten</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9ro%C3%AFdes-lipofuscinoses_neuronales</t>
+          <t>Céroïdes-lipofuscinoses_neuronales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,13 +596,13 @@
           <t>Incidence &amp; prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les céroïdes-lipofuscinoses neuronales représentent la plus fréquente des maladies neuro dégénératives héréditaires avec une prévalence de 1 sur 25000.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les céroïdes-lipofuscinoses neuronales représentent la plus fréquente des maladies neuro dégénératives héréditaires avec une prévalence de 1 sur 25000.
 L'incidence varie en fonction des pays de 0,1 à 7 pour 100 000 naissances. Près de la moitié des cas rapportés sont en Finlande où l'incidence est de 1 sur 20 000 naissances.
-Mode de transmission
-La maladie de Kufs ou céroïde-lipofuscinose neuronale de type 4 est de transmission autosomique dominante.
-Les autres types de céroïde-lipofuscinoses neuronales sont de transmission autosomique récessive.</t>
+</t>
         </is>
       </c>
     </row>
@@ -596,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9ro%C3%AFdes-lipofuscinoses_neuronales</t>
+          <t>Céroïdes-lipofuscinoses_neuronales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,10 +627,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Incidence &amp; prévalence</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La maladie de Kufs ou céroïde-lipofuscinose neuronale de type 4 est de transmission autosomique dominante.
+Les autres types de céroïde-lipofuscinoses neuronales sont de transmission autosomique récessive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Céroïdes-lipofuscinoses_neuronales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%A9ro%C3%AFdes-lipofuscinoses_neuronales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Association de patients</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(fr) Association Vaincre les Maladies Lysosomales / Céroïde Lipofuscinose</t>
         </is>
